--- a/Sheet1输出数据.xlsx
+++ b/Sheet1输出数据.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,13 +469,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>6.557438477556262</v>
+        <v>-0.7698854603508229</v>
       </c>
       <c r="D2" t="n">
-        <v>2.755598857159548</v>
+        <v>-0.7470765404860809</v>
       </c>
     </row>
     <row r="3">
@@ -483,13 +483,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1525915594332557</v>
+        <v>0.674538007801921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8798075991105958</v>
+        <v>0.7117667677926229</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1524170955468368</v>
+        <v>1.230085495552976</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8800803376502367</v>
+        <v>1.208112513027169</v>
       </c>
     </row>
     <row r="5">
@@ -511,13 +511,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1523499940520603</v>
+        <v>-0.9032168574110763</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8801851842440226</v>
+        <v>-0.8971303207631431</v>
       </c>
     </row>
     <row r="6">
@@ -525,13 +525,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1526076637920021</v>
+        <v>0.09676862054082336</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8797824132311977</v>
+        <v>0.160863542525998</v>
       </c>
     </row>
     <row r="7">
@@ -539,13 +539,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1524868811014043</v>
+        <v>0.3634314146613302</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8799712660609869</v>
+        <v>0.4199007772225919</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1524546723839116</v>
+        <v>-1.375432221999473</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8800216107402113</v>
+        <v>-1.455309146888729</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +567,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1526647000625621</v>
+        <v>0.4356525880689672</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8796931996176131</v>
+        <v>0.4886146564337108</v>
       </c>
     </row>
     <row r="10">
@@ -581,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1524459491895907</v>
+        <v>1.135642422635297</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8800352445933372</v>
+        <v>1.125824220534737</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1523614013061723</v>
+        <v>0.3134321407637349</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8801673623926347</v>
+        <v>0.3719775123550872</v>
       </c>
     </row>
     <row r="12">
@@ -609,13 +609,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1524607115184415</v>
+        <v>0.7412037063320477</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8800121716281689</v>
+        <v>0.7729500976628552</v>
       </c>
     </row>
     <row r="13">
@@ -623,13 +623,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1524090433674636</v>
+        <v>0.713426331944495</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8800929207906141</v>
+        <v>0.7475134040004059</v>
       </c>
     </row>
     <row r="14">
@@ -637,13 +637,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1524123984422024</v>
+        <v>-0.8032183096158864</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8800876778668121</v>
+        <v>-0.784301481329319</v>
       </c>
     </row>
     <row r="15">
@@ -651,13 +651,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1525955855229423</v>
+        <v>-0.3143365203949576</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8798013027995206</v>
+        <v>-0.2562602089631503</v>
       </c>
     </row>
     <row r="16">
@@ -665,13 +665,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.152536536207539</v>
+        <v>-0.6476650130455909</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8798936380894447</v>
+        <v>-0.6121780753060533</v>
       </c>
     </row>
     <row r="17">
@@ -679,13 +679,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1525767971044049</v>
+        <v>2.663398013950699</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8798306846790347</v>
+        <v>2.367868553450533</v>
       </c>
     </row>
     <row r="18">
@@ -693,13 +693,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1521768721955369</v>
+        <v>0.9800891260650014</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8804555530697558</v>
+        <v>0.9884753880581536</v>
       </c>
     </row>
     <row r="19">
@@ -707,13 +707,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1523801897247097</v>
+        <v>-0.6309985884130591</v>
       </c>
       <c r="D19" t="n">
-        <v>0.880138006907212</v>
+        <v>-0.5939726433077903</v>
       </c>
     </row>
     <row r="20">
@@ -721,13 +721,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1525747840595616</v>
+        <v>1.430082591143356</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8798338326008543</v>
+        <v>1.379727480862778</v>
       </c>
     </row>
     <row r="21">
@@ -735,13 +735,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1523258375139407</v>
+        <v>-0.5865547893929747</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8802229218375639</v>
+        <v>-0.5456425353548584</v>
       </c>
     </row>
     <row r="22">
@@ -749,13 +749,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1525694159399795</v>
+        <v>0.8634241536372801</v>
       </c>
       <c r="D22" t="n">
-        <v>0.879842226929702</v>
+        <v>0.8839318612070544</v>
       </c>
     </row>
     <row r="23">
@@ -763,13 +763,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1523942810386128</v>
+        <v>-0.8254402091259285</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8801159887838416</v>
+        <v>-0.8092238949041823</v>
       </c>
     </row>
     <row r="24">
@@ -777,13 +777,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1525982695827333</v>
+        <v>-1.153213226899051</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8797971052000003</v>
+        <v>-1.187168331938095</v>
       </c>
     </row>
     <row r="25">
@@ -791,13 +791,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1526378594646515</v>
+        <v>0.1301014698058868</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8797351851418946</v>
+        <v>0.1937160219400764</v>
       </c>
     </row>
     <row r="26">
@@ -805,13 +805,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1524828550117178</v>
+        <v>-0.7476635608407809</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8799775595158862</v>
+        <v>-0.7223646577742058</v>
       </c>
     </row>
     <row r="27">
@@ -819,13 +819,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1525888753734646</v>
+        <v>-1.703205239772596</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8798117965925113</v>
+        <v>-1.87073433806809</v>
       </c>
     </row>
     <row r="28">
@@ -833,13 +833,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1527042899444802</v>
+        <v>-0.9754380308187136</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8796312623759176</v>
+        <v>-0.9797234505575629</v>
       </c>
     </row>
     <row r="29">
@@ -847,13 +847,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.152616386986323</v>
+        <v>1.26341834481804</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8797687701726722</v>
+        <v>1.236961550617804</v>
       </c>
     </row>
     <row r="30">
@@ -861,13 +861,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1523459679623737</v>
+        <v>-0.3143365203949576</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8801914741068595</v>
+        <v>-0.2562602089631503</v>
       </c>
     </row>
     <row r="31">
@@ -875,13 +875,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.152536536207539</v>
+        <v>-0.6198876386580381</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8798936380894447</v>
+        <v>-0.5818605295877683</v>
       </c>
     </row>
     <row r="32">
@@ -889,13 +889,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.152573442029666</v>
+        <v>-0.5809993145154643</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8798359312007031</v>
+        <v>-0.5396233567972024</v>
       </c>
     </row>
     <row r="33">
@@ -903,13 +903,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1525687449250317</v>
+        <v>1.118975998002765</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8798432762075805</v>
+        <v>1.111217384010496</v>
       </c>
     </row>
     <row r="34">
@@ -917,13 +917,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1523634143510156</v>
+        <v>1.335639518225677</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8801642172720495</v>
+        <v>1.299126747116871</v>
       </c>
     </row>
     <row r="35">
@@ -931,13 +931,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1523372447680527</v>
+        <v>0.8689796285147904</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8802051017808443</v>
+        <v>0.8889406265878799</v>
       </c>
     </row>
     <row r="36">
@@ -945,13 +945,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.152393610023665</v>
+        <v>1.491192814795973</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8801170372952454</v>
+        <v>1.431470875405827</v>
       </c>
     </row>
     <row r="37">
@@ -959,13 +959,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1523184563495153</v>
+        <v>-0.6365540632905697</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8802344520109779</v>
+        <v>-0.6000361422676781</v>
       </c>
     </row>
     <row r="38">
@@ -973,13 +973,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1525754550745093</v>
+        <v>-1.075436578613904</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8798327832965207</v>
+        <v>-1.095670011426691</v>
       </c>
     </row>
     <row r="39">
@@ -987,13 +987,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1526284652553828</v>
+        <v>0.8578686787597695</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8797498789634464</v>
+        <v>0.878920011234827</v>
       </c>
     </row>
     <row r="40">
@@ -1001,13 +1001,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1523949520535605</v>
+        <v>0.2189890678460557</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8801149402695035</v>
+        <v>0.2806522983495278</v>
       </c>
     </row>
     <row r="41">
@@ -1015,13 +1015,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1524721187725535</v>
+        <v>-1.519874568814748</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8799943415454329</v>
+        <v>-1.635289591642931</v>
       </c>
     </row>
     <row r="42">
@@ -1029,13 +1029,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.152682146451204</v>
+        <v>-0.6421095381680803</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8796659065024157</v>
+        <v>-0.6061046161946975</v>
       </c>
     </row>
     <row r="43">
@@ -1043,13 +1043,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1525761260894571</v>
+        <v>-1.219878925429178</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8798317339892474</v>
+        <v>-1.266544411417245</v>
       </c>
     </row>
     <row r="44">
@@ -1057,27 +1057,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1526459116440247</v>
+        <v>-0.8809949579010341</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8797225899788387</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-0.152604979732211</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.8797866109953784</v>
+        <v>-0.871905497966367</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1116,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7286146197396629</v>
+        <v>3.094492595194591</v>
       </c>
     </row>
     <row r="3">
@@ -1127,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5955431182280755</v>
+        <v>-1.310435075772882</v>
       </c>
     </row>
     <row r="4">
@@ -1138,10 +1124,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02376658253401819</v>
+        <v>-0.2534550474334591</v>
       </c>
     </row>
     <row r="5">
@@ -1149,10 +1135,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3126967348984742</v>
+        <v>0.531650260123724</v>
       </c>
     </row>
     <row r="6">
@@ -1160,10 +1146,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4452442524840613</v>
+        <v>0.3741548165801316</v>
       </c>
     </row>
     <row r="7">
@@ -1171,10 +1157,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.02846446569825211</v>
+        <v>-0.09029523619214724</v>
       </c>
     </row>
     <row r="8">
@@ -1182,10 +1168,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.330584808248784</v>
+        <v>-0.05254988781044007</v>
       </c>
     </row>
     <row r="9">
@@ -1193,10 +1179,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04362582617915844</v>
+        <v>-0.1990089457037049</v>
       </c>
     </row>
     <row r="10">
@@ -1204,10 +1190,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01417675286985656</v>
+        <v>-0.2766277439474421</v>
       </c>
     </row>
     <row r="11">
@@ -1215,10 +1201,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>1.187625578892534</v>
+        <v>1.013378240511171</v>
       </c>
     </row>
     <row r="12">
@@ -1226,10 +1212,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1017535698659563</v>
+        <v>-0.3893738712499147</v>
       </c>
     </row>
     <row r="13">
@@ -1237,10 +1223,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.017409382712008</v>
+        <v>-2.319739639379361</v>
       </c>
     </row>
     <row r="14">
@@ -1248,10 +1234,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>3.320001661339998</v>
+        <v>5.357378667643149</v>
       </c>
     </row>
     <row r="15">
@@ -1259,10 +1245,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06136469070625668</v>
+        <v>0.1111893217330293</v>
       </c>
     </row>
     <row r="16">
@@ -1270,10 +1256,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.472113702700102</v>
+        <v>-0.2854865846415367</v>
       </c>
     </row>
     <row r="17">
@@ -1281,10 +1267,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2541260253715408</v>
+        <v>-0.5551347412632591</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1278,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>1.13865836105052</v>
+        <v>0.3022126644749092</v>
       </c>
     </row>
     <row r="19">
@@ -1303,10 +1289,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>1.387602120524809</v>
+        <v>2.250658550939515</v>
       </c>
     </row>
     <row r="20">
@@ -1314,10 +1300,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.6148385566941735</v>
+        <v>-2.298118450099004</v>
       </c>
     </row>
     <row r="21">
@@ -1325,10 +1311,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5605997623075767</v>
+        <v>-0.3806760699672961</v>
       </c>
     </row>
     <row r="22">
@@ -1336,10 +1322,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>0.14656453158609</v>
+        <v>-0.1398785367014662</v>
       </c>
     </row>
     <row r="23">
@@ -1347,10 +1333,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3339588646436017</v>
+        <v>-0.1905173219854963</v>
       </c>
     </row>
     <row r="24">
@@ -1358,10 +1344,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08892998106804201</v>
+        <v>0.428294141995127</v>
       </c>
     </row>
     <row r="25">
@@ -1369,10 +1355,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>2.161370695119805</v>
+        <v>1.654208943807701</v>
       </c>
     </row>
     <row r="26">
@@ -1380,10 +1366,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1953193881728527</v>
+        <v>-0.1002281504471702</v>
       </c>
     </row>
     <row r="27">
@@ -1391,10 +1377,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3329979331132833</v>
+        <v>1.001217797025292</v>
       </c>
     </row>
     <row r="28">
@@ -1402,10 +1388,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8043225162542599</v>
+        <v>1.184885481917513</v>
       </c>
     </row>
     <row r="29">
@@ -1413,10 +1399,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.09785463467480367</v>
+        <v>-0.5905118018725525</v>
       </c>
     </row>
     <row r="30">
@@ -1424,10 +1410,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.2120520269382834</v>
+        <v>-0.1654239401342754</v>
       </c>
     </row>
     <row r="31">
@@ -1435,10 +1421,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08943889723854105</v>
+        <v>0.3051154945539752</v>
       </c>
     </row>
     <row r="32">
@@ -1446,10 +1432,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>1.487966614959039</v>
+        <v>2.275809332485767</v>
       </c>
     </row>
     <row r="33">
@@ -1457,10 +1443,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0486573841551163</v>
+        <v>-0.2469179652753665</v>
       </c>
     </row>
     <row r="34">
@@ -1468,10 +1454,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1420395782802154</v>
+        <v>-0.6504583989710656</v>
       </c>
     </row>
     <row r="35">
@@ -1479,10 +1465,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.02560099010475731</v>
+        <v>-0.3365003028480157</v>
       </c>
     </row>
     <row r="36">
@@ -1490,10 +1476,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.116563340508214</v>
+        <v>-4.526027152985</v>
       </c>
     </row>
     <row r="37">
@@ -1501,10 +1487,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.7657490610901294</v>
+        <v>-0.4125537661982341</v>
       </c>
     </row>
     <row r="38">
@@ -1512,10 +1498,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.6922274388554935</v>
+        <v>-0.4362760870688122</v>
       </c>
     </row>
     <row r="39">
@@ -1523,10 +1509,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.277486936346756</v>
+        <v>-1.239486969462753</v>
       </c>
     </row>
     <row r="40">
@@ -1534,10 +1520,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03073912689291506</v>
+        <v>-0.06336475574131366</v>
       </c>
     </row>
     <row r="41">
@@ -1545,10 +1531,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.034477606242825</v>
+        <v>0.3652503818095729</v>
       </c>
     </row>
     <row r="42">
@@ -1556,10 +1542,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C42" t="n">
-        <v>0.462651629877169</v>
+        <v>0.8283082508095956</v>
       </c>
     </row>
     <row r="43">
@@ -1567,10 +1553,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C43" t="n">
-        <v>0.05547563405964488</v>
+        <v>0.3824640545560881</v>
       </c>
     </row>
     <row r="44">
@@ -1578,21 +1564,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3814844502211762</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-0.3931219509976286</v>
+        <v>0.8076902442993552</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +4209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4259,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.07795809184101886</v>
+        <v>-0.03276275863413206</v>
       </c>
     </row>
     <row r="3">
@@ -4270,10 +4245,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4223578012171466</v>
+        <v>0.03019254299386568</v>
       </c>
     </row>
     <row r="4">
@@ -4281,10 +4256,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0288429946405837</v>
+        <v>-0.3492247403225487</v>
       </c>
     </row>
     <row r="5">
@@ -4292,10 +4267,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5602623942603263</v>
+        <v>3.021137114857457</v>
       </c>
     </row>
     <row r="6">
@@ -4303,10 +4278,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4238385879739811</v>
+        <v>0.2195313926895781</v>
       </c>
     </row>
     <row r="7">
@@ -4314,10 +4289,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06382483919715209</v>
+        <v>-0.5386832893657522</v>
       </c>
     </row>
     <row r="8">
@@ -4325,10 +4300,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1111919421783604</v>
+        <v>0.6141583073000104</v>
       </c>
     </row>
     <row r="9">
@@ -4336,10 +4311,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3225380848811648</v>
+        <v>0.0426130806591067</v>
       </c>
     </row>
     <row r="10">
@@ -4347,10 +4322,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2718273333930554</v>
+        <v>-4.564252421690035</v>
       </c>
     </row>
     <row r="11">
@@ -4358,10 +4333,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1679083393746768</v>
+        <v>-0.006388263389515244</v>
       </c>
     </row>
     <row r="12">
@@ -4369,10 +4344,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5160651612827577</v>
+        <v>0.07392883107774008</v>
       </c>
     </row>
     <row r="13">
@@ -4380,10 +4355,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3093416175762312</v>
+        <v>0.09832127762103211</v>
       </c>
     </row>
     <row r="14">
@@ -4391,10 +4366,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.323196736207421</v>
+        <v>-0.1069034391350469</v>
       </c>
     </row>
     <row r="15">
@@ -4402,10 +4377,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02644286346488611</v>
+        <v>0.08095620194196279</v>
       </c>
     </row>
     <row r="16">
@@ -4413,10 +4388,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5474899221094862</v>
+        <v>1.489125608379992</v>
       </c>
     </row>
     <row r="17">
@@ -4424,10 +4399,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0451496627627859</v>
+        <v>-0.5812469810296103</v>
       </c>
     </row>
     <row r="18">
@@ -4435,10 +4410,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1831079301859805</v>
+        <v>-2.193118637349468</v>
       </c>
     </row>
     <row r="19">
@@ -4446,10 +4421,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2168831101594047</v>
+        <v>-0.05703887767252622</v>
       </c>
     </row>
     <row r="20">
@@ -4457,10 +4432,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.013824233391689</v>
+        <v>-0.6517393019467461</v>
       </c>
     </row>
     <row r="21">
@@ -4468,10 +4443,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.546836444907591</v>
+        <v>1.320460080336537</v>
       </c>
     </row>
     <row r="22">
@@ -4479,10 +4454,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3231303782958873</v>
+        <v>-2.696842688894009</v>
       </c>
     </row>
     <row r="23">
@@ -4490,10 +4465,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1400533216496649</v>
+        <v>0.5777321501359182</v>
       </c>
     </row>
     <row r="24">
@@ -4501,10 +4476,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.09180639907953556</v>
+        <v>0.1717916192284275</v>
       </c>
     </row>
     <row r="25">
@@ -4512,10 +4487,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.312076394039022</v>
+        <v>-0.5288848930128442</v>
       </c>
     </row>
     <row r="26">
@@ -4523,10 +4498,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05898664814304008</v>
+        <v>0.336120775003013</v>
       </c>
     </row>
     <row r="27">
@@ -4534,10 +4509,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2448164338621779</v>
+        <v>0.09052225803642273</v>
       </c>
     </row>
     <row r="28">
@@ -4545,10 +4520,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.33221365285041</v>
+        <v>-0.08596986425180354</v>
       </c>
     </row>
     <row r="29">
@@ -4556,10 +4531,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4488445178697295</v>
+        <v>-0.07341653394139547</v>
       </c>
     </row>
     <row r="30">
@@ -4567,10 +4542,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1972556752800426</v>
+        <v>-0.1421623420689228</v>
       </c>
     </row>
     <row r="31">
@@ -4578,10 +4553,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05337316403300842</v>
+        <v>0.2692900205892489</v>
       </c>
     </row>
     <row r="32">
@@ -4589,10 +4564,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2275273693403547</v>
+        <v>-0.08116630227895284</v>
       </c>
     </row>
     <row r="33">
@@ -4600,10 +4575,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1091302816142803</v>
+        <v>-1.302725158869233</v>
       </c>
     </row>
     <row r="34">
@@ -4611,10 +4586,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5308603928094758</v>
+        <v>-0.02612702129184427</v>
       </c>
     </row>
     <row r="35">
@@ -4622,10 +4597,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1719131124815456</v>
+        <v>-0.1710178503501709</v>
       </c>
     </row>
     <row r="36">
@@ -4633,10 +4608,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3240404270457994</v>
+        <v>-0.1709295614703564</v>
       </c>
     </row>
     <row r="37">
@@ -4644,10 +4619,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5376157680408959</v>
+        <v>1.753485235857862</v>
       </c>
     </row>
     <row r="38">
@@ -4655,10 +4630,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04809594422414721</v>
+        <v>0.4153503701013488</v>
       </c>
     </row>
     <row r="39">
@@ -4666,10 +4641,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1521381078339119</v>
+        <v>-0.1809079317413499</v>
       </c>
     </row>
     <row r="40">
@@ -4677,10 +4652,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.2208312186867235</v>
+        <v>-0.5526013932133671</v>
       </c>
     </row>
     <row r="41">
@@ -4688,10 +4663,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.06622084779823331</v>
+        <v>0.2365250796622376</v>
       </c>
     </row>
     <row r="42">
@@ -4699,10 +4674,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.08562602742556728</v>
+        <v>0.06196879466344987</v>
       </c>
     </row>
     <row r="43">
@@ -4710,10 +4685,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.07464765595511456</v>
+        <v>0.1989181783606136</v>
       </c>
     </row>
     <row r="44">
@@ -4721,21 +4696,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.08317923119477034</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-0.1325002534748276</v>
+        <v>0.1275774794109015</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4741,7 @@
         <v>2021</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.07795809184101886</v>
+        <v>2.041716225342362</v>
       </c>
     </row>
     <row r="3">
@@ -4788,7 +4752,7 @@
         <v>2020</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4223578012171466</v>
+        <v>-2.485207076080619</v>
       </c>
     </row>
     <row r="4">
@@ -4799,7 +4763,7 @@
         <v>2019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0288429946405837</v>
+        <v>0.1431513571123994</v>
       </c>
     </row>
     <row r="5">
@@ -4810,7 +4774,7 @@
         <v>2018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5602623942603263</v>
+        <v>-0.1718344570725991</v>
       </c>
     </row>
     <row r="6">
@@ -4821,7 +4785,7 @@
         <v>2017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4238385879739811</v>
+        <v>-0.3132110401830672</v>
       </c>
     </row>
     <row r="7">
@@ -4832,7 +4796,7 @@
         <v>2016</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06382483919715209</v>
+        <v>-0.0123265391929344</v>
       </c>
     </row>
     <row r="8">
@@ -4843,7 +4807,7 @@
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1111919421783604</v>
+        <v>0.007394426937214726</v>
       </c>
     </row>
     <row r="9">
@@ -4854,7 +4818,7 @@
         <v>2014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3225380848811648</v>
+        <v>-0.02853146598655272</v>
       </c>
     </row>
     <row r="10">
@@ -4865,7 +4829,7 @@
         <v>2013</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2718273333930554</v>
+        <v>0.1666326922860916</v>
       </c>
     </row>
     <row r="11">
@@ -4876,7 +4840,7 @@
         <v>2012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1679083393746768</v>
+        <v>0.2734509761535421</v>
       </c>
     </row>
     <row r="12">
@@ -4887,7 +4851,7 @@
         <v>2011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5160651612827577</v>
+        <v>-4.333237007792624</v>
       </c>
     </row>
     <row r="13">
@@ -4898,7 +4862,7 @@
         <v>2010</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3093416175762312</v>
+        <v>-0.4053238436748428</v>
       </c>
     </row>
     <row r="14">
@@ -4909,7 +4873,7 @@
         <v>2009</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.323196736207421</v>
+        <v>6.579086752988513</v>
       </c>
     </row>
     <row r="15">
@@ -4920,7 +4884,7 @@
         <v>2008</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02644286346488611</v>
+        <v>0.2826336637320164</v>
       </c>
     </row>
     <row r="16">
@@ -4931,7 +4895,7 @@
         <v>2007</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5474899221094862</v>
+        <v>-0.3408877456414229</v>
       </c>
     </row>
     <row r="17">
@@ -4942,7 +4906,7 @@
         <v>2006</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0451496627627859</v>
+        <v>0.7577079918284195</v>
       </c>
     </row>
     <row r="18">
@@ -4953,7 +4917,7 @@
         <v>2005</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1831079301859805</v>
+        <v>2.179078615798502</v>
       </c>
     </row>
     <row r="19">
@@ -4964,7 +4928,7 @@
         <v>2004</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2168831101594047</v>
+        <v>0.1958279850162452</v>
       </c>
     </row>
     <row r="20">
@@ -4975,7 +4939,7 @@
         <v>2003</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.013824233391689</v>
+        <v>-0.2176895969427275</v>
       </c>
     </row>
     <row r="21">
@@ -4986,7 +4950,7 @@
         <v>2002</v>
       </c>
       <c r="C21" t="n">
-        <v>0.546836444907591</v>
+        <v>-0.3807589693255426</v>
       </c>
     </row>
     <row r="22">
@@ -4997,7 +4961,7 @@
         <v>2001</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3231303782958873</v>
+        <v>-0.01921657129252097</v>
       </c>
     </row>
     <row r="23">
@@ -5008,7 +4972,7 @@
         <v>2000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1400533216496649</v>
+        <v>-0.0676680370022585</v>
       </c>
     </row>
     <row r="24">
@@ -5019,7 +4983,7 @@
         <v>1999</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.09180639907953556</v>
+        <v>0.8498831891060201</v>
       </c>
     </row>
     <row r="25">
@@ -5030,7 +4994,7 @@
         <v>1998</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.312076394039022</v>
+        <v>1.670520194487562</v>
       </c>
     </row>
     <row r="26">
@@ -5041,7 +5005,7 @@
         <v>1997</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05898664814304008</v>
+        <v>0.02505131109392592</v>
       </c>
     </row>
     <row r="27">
@@ -5052,7 +5016,7 @@
         <v>1996</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2448164338621779</v>
+        <v>0.2371153142598176</v>
       </c>
     </row>
     <row r="28">
@@ -5063,7 +5027,7 @@
         <v>1995</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.33221365285041</v>
+        <v>3.845439811180152</v>
       </c>
     </row>
     <row r="29">
@@ -5074,7 +5038,7 @@
         <v>1994</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4488445178697295</v>
+        <v>-0.4634043347771477</v>
       </c>
     </row>
     <row r="30">
@@ -5085,7 +5049,7 @@
         <v>1993</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1972556752800426</v>
+        <v>-0.06870551110369073</v>
       </c>
     </row>
     <row r="31">
@@ -5096,7 +5060,7 @@
         <v>1992</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05337316403300842</v>
+        <v>0.345738941171936</v>
       </c>
     </row>
     <row r="32">
@@ -5107,7 +5071,7 @@
         <v>1991</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2275273693403547</v>
+        <v>0.6402141781872462</v>
       </c>
     </row>
     <row r="33">
@@ -5118,7 +5082,7 @@
         <v>1990</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1091302816142803</v>
+        <v>0.07966071042090907</v>
       </c>
     </row>
     <row r="34">
@@ -5129,7 +5093,7 @@
         <v>1989</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5308603928094758</v>
+        <v>-0.0004257651707776594</v>
       </c>
     </row>
     <row r="35">
@@ -5140,7 +5104,7 @@
         <v>1988</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1719131124815456</v>
+        <v>-0.6596602868950723</v>
       </c>
     </row>
     <row r="36">
@@ -5151,7 +5115,7 @@
         <v>1987</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3240404270457994</v>
+        <v>-1.525049641358234</v>
       </c>
     </row>
     <row r="37">
@@ -5162,7 +5126,7 @@
         <v>1986</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5376157680408959</v>
+        <v>-5.551331443603615</v>
       </c>
     </row>
     <row r="38">
@@ -5173,7 +5137,7 @@
         <v>1985</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04809594422414721</v>
+        <v>-0.4454744134372163</v>
       </c>
     </row>
     <row r="39">
@@ -5184,7 +5148,7 @@
         <v>1984</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1521381078339119</v>
+        <v>-0.5258531091185471</v>
       </c>
     </row>
     <row r="40">
@@ -5195,7 +5159,7 @@
         <v>1983</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.2208312186867235</v>
+        <v>0.2332996756281943</v>
       </c>
     </row>
     <row r="41">
@@ -5206,7 +5170,7 @@
         <v>1982</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.06622084779823331</v>
+        <v>-0.224881543427472</v>
       </c>
     </row>
     <row r="42">
@@ -5217,7 +5181,7 @@
         <v>1981</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.08562602742556728</v>
+        <v>-0.131490959815865</v>
       </c>
     </row>
     <row r="43">
@@ -5228,7 +5192,7 @@
         <v>1980</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.07464765595511456</v>
+        <v>-0.07245945253586551</v>
       </c>
     </row>
     <row r="44">
@@ -5239,7 +5203,7 @@
         <v>1979</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.08317923119477034</v>
+        <v>0.3441939214230197</v>
       </c>
     </row>
     <row r="45">
@@ -5250,7 +5214,7 @@
         <v>1978</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.1325002534748276</v>
+        <v>-0.1670731027449339</v>
       </c>
     </row>
   </sheetData>
